--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Rgma-Neo1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Rgma-Neo1.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.316967666666667</v>
+        <v>1.973713333333333</v>
       </c>
       <c r="H2">
-        <v>3.950903</v>
+        <v>5.921139999999999</v>
       </c>
       <c r="I2">
-        <v>0.02034337776957547</v>
+        <v>0.03018202516692187</v>
       </c>
       <c r="J2">
-        <v>0.02034337776957547</v>
+        <v>0.03018202516692186</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.442429333333334</v>
+        <v>4.331589999999999</v>
       </c>
       <c r="N2">
-        <v>7.327288</v>
+        <v>12.99477</v>
       </c>
       <c r="O2">
-        <v>0.08913295894744963</v>
+        <v>0.1478799966101367</v>
       </c>
       <c r="P2">
-        <v>0.08913295894744963</v>
+        <v>0.1478799966101367</v>
       </c>
       <c r="Q2">
-        <v>3.216600460118223</v>
+        <v>8.549316937533332</v>
       </c>
       <c r="R2">
-        <v>28.949404141064</v>
+        <v>76.94385243779999</v>
       </c>
       <c r="S2">
-        <v>0.00181326545558803</v>
+        <v>0.004463317779371467</v>
       </c>
       <c r="T2">
-        <v>0.00181326545558803</v>
+        <v>0.004463317779371466</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.316967666666667</v>
+        <v>1.973713333333333</v>
       </c>
       <c r="H3">
-        <v>3.950903</v>
+        <v>5.921139999999999</v>
       </c>
       <c r="I3">
-        <v>0.02034337776957547</v>
+        <v>0.03018202516692187</v>
       </c>
       <c r="J3">
-        <v>0.02034337776957547</v>
+        <v>0.03018202516692186</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>47.489728</v>
       </c>
       <c r="O3">
-        <v>0.5776898596383203</v>
+        <v>0.5404313285772905</v>
       </c>
       <c r="P3">
-        <v>0.5776898596383203</v>
+        <v>0.5404313285772904</v>
       </c>
       <c r="Q3">
-        <v>20.84747875826489</v>
+        <v>31.24370311665778</v>
       </c>
       <c r="R3">
-        <v>187.627308824384</v>
+        <v>281.19332804992</v>
       </c>
       <c r="S3">
-        <v>0.01175216304827538</v>
+        <v>0.0163113119601128</v>
       </c>
       <c r="T3">
-        <v>0.01175216304827538</v>
+        <v>0.0163113119601128</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.316967666666667</v>
+        <v>1.973713333333333</v>
       </c>
       <c r="H4">
-        <v>3.950903</v>
+        <v>5.921139999999999</v>
       </c>
       <c r="I4">
-        <v>0.02034337776957547</v>
+        <v>0.03018202516692187</v>
       </c>
       <c r="J4">
-        <v>0.02034337776957547</v>
+        <v>0.03018202516692186</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>9.129750999999999</v>
+        <v>9.129751000000001</v>
       </c>
       <c r="N4">
         <v>27.389253</v>
       </c>
       <c r="O4">
-        <v>0.3331771814142301</v>
+        <v>0.3116886748125729</v>
       </c>
       <c r="P4">
-        <v>0.3331771814142301</v>
+        <v>0.3116886748125729</v>
       </c>
       <c r="Q4">
-        <v>12.02358687171767</v>
+        <v>18.01951127871333</v>
       </c>
       <c r="R4">
-        <v>108.212281845459</v>
+        <v>162.17560150842</v>
       </c>
       <c r="S4">
-        <v>0.006777949265712061</v>
+        <v>0.009407395427437602</v>
       </c>
       <c r="T4">
-        <v>0.006777949265712061</v>
+        <v>0.0094073954274376</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,16 +720,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>43.63696533333333</v>
+        <v>43.63696533333334</v>
       </c>
       <c r="H5">
         <v>130.910896</v>
       </c>
       <c r="I5">
-        <v>0.6740661088064186</v>
+        <v>0.667296493191563</v>
       </c>
       <c r="J5">
-        <v>0.6740661088064185</v>
+        <v>0.6672964931915629</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.442429333333334</v>
+        <v>4.331589999999999</v>
       </c>
       <c r="N5">
-        <v>7.327288</v>
+        <v>12.99477</v>
       </c>
       <c r="O5">
-        <v>0.08913295894744963</v>
+        <v>0.1478799966101367</v>
       </c>
       <c r="P5">
-        <v>0.08913295894744963</v>
+        <v>0.1478799966101367</v>
       </c>
       <c r="Q5">
-        <v>106.5802041477831</v>
+        <v>189.0174426682133</v>
       </c>
       <c r="R5">
-        <v>959.2218373300478</v>
+        <v>1701.15698401392</v>
       </c>
       <c r="S5">
-        <v>0.06008150680410963</v>
+        <v>0.09867980315112447</v>
       </c>
       <c r="T5">
-        <v>0.06008150680410961</v>
+        <v>0.09867980315112446</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>43.63696533333333</v>
+        <v>43.63696533333334</v>
       </c>
       <c r="H6">
         <v>130.910896</v>
       </c>
       <c r="I6">
-        <v>0.6740661088064186</v>
+        <v>0.667296493191563</v>
       </c>
       <c r="J6">
-        <v>0.6740661088064185</v>
+        <v>0.6672964931915629</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>47.489728</v>
       </c>
       <c r="O6">
-        <v>0.5776898596383203</v>
+        <v>0.5404313285772905</v>
       </c>
       <c r="P6">
-        <v>0.5776898596383203</v>
+        <v>0.5404313285772904</v>
       </c>
       <c r="Q6">
-        <v>690.7692048084764</v>
+        <v>690.7692048084765</v>
       </c>
       <c r="R6">
-        <v>6216.922843276287</v>
+        <v>6216.922843276288</v>
       </c>
       <c r="S6">
-        <v>0.3894011557833287</v>
+        <v>0.3606279303704833</v>
       </c>
       <c r="T6">
-        <v>0.3894011557833286</v>
+        <v>0.3606279303704831</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>43.63696533333333</v>
+        <v>43.63696533333334</v>
       </c>
       <c r="H7">
         <v>130.910896</v>
       </c>
       <c r="I7">
-        <v>0.6740661088064186</v>
+        <v>0.667296493191563</v>
       </c>
       <c r="J7">
-        <v>0.6740661088064185</v>
+        <v>0.6672964931915629</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>9.129750999999999</v>
+        <v>9.129751000000001</v>
       </c>
       <c r="N7">
         <v>27.389253</v>
       </c>
       <c r="O7">
-        <v>0.3331771814142301</v>
+        <v>0.3116886748125729</v>
       </c>
       <c r="P7">
-        <v>0.3331771814142301</v>
+        <v>0.3116886748125729</v>
       </c>
       <c r="Q7">
-        <v>398.3946278889653</v>
+        <v>398.3946278889654</v>
       </c>
       <c r="R7">
-        <v>3585.551651000687</v>
+        <v>3585.551651000688</v>
       </c>
       <c r="S7">
-        <v>0.2245834462189803</v>
+        <v>0.2079887596699554</v>
       </c>
       <c r="T7">
-        <v>0.2245834462189802</v>
+        <v>0.2079887596699553</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>19.78298933333333</v>
+        <v>19.78298933333334</v>
       </c>
       <c r="H8">
-        <v>59.348968</v>
+        <v>59.34896800000001</v>
       </c>
       <c r="I8">
-        <v>0.305590513424006</v>
+        <v>0.3025214816415151</v>
       </c>
       <c r="J8">
-        <v>0.305590513424006</v>
+        <v>0.3025214816415151</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.442429333333334</v>
+        <v>4.331589999999999</v>
       </c>
       <c r="N8">
-        <v>7.327288</v>
+        <v>12.99477</v>
       </c>
       <c r="O8">
-        <v>0.08913295894744963</v>
+        <v>0.1478799966101367</v>
       </c>
       <c r="P8">
-        <v>0.08913295894744963</v>
+        <v>0.1478799966101367</v>
       </c>
       <c r="Q8">
-        <v>48.31855344875378</v>
+        <v>85.69179876637334</v>
       </c>
       <c r="R8">
-        <v>434.866981038784</v>
+        <v>771.22618889736</v>
       </c>
       <c r="S8">
-        <v>0.02723818668775198</v>
+        <v>0.0447368756796408</v>
       </c>
       <c r="T8">
-        <v>0.02723818668775198</v>
+        <v>0.0447368756796408</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>19.78298933333333</v>
+        <v>19.78298933333334</v>
       </c>
       <c r="H9">
-        <v>59.348968</v>
+        <v>59.34896800000001</v>
       </c>
       <c r="I9">
-        <v>0.305590513424006</v>
+        <v>0.3025214816415151</v>
       </c>
       <c r="J9">
-        <v>0.305590513424006</v>
+        <v>0.3025214816415151</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>47.489728</v>
       </c>
       <c r="O9">
-        <v>0.5776898596383203</v>
+        <v>0.5404313285772905</v>
       </c>
       <c r="P9">
-        <v>0.5776898596383203</v>
+        <v>0.5404313285772904</v>
       </c>
       <c r="Q9">
-        <v>313.1629274889671</v>
+        <v>313.1629274889672</v>
       </c>
       <c r="R9">
         <v>2818.466347400704</v>
       </c>
       <c r="S9">
-        <v>0.1765365408067163</v>
+        <v>0.1634920862466944</v>
       </c>
       <c r="T9">
-        <v>0.1765365408067163</v>
+        <v>0.1634920862466944</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>19.78298933333333</v>
+        <v>19.78298933333334</v>
       </c>
       <c r="H10">
-        <v>59.348968</v>
+        <v>59.34896800000001</v>
       </c>
       <c r="I10">
-        <v>0.305590513424006</v>
+        <v>0.3025214816415151</v>
       </c>
       <c r="J10">
-        <v>0.305590513424006</v>
+        <v>0.3025214816415151</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>9.129750999999999</v>
+        <v>9.129751000000001</v>
       </c>
       <c r="N10">
         <v>27.389253</v>
       </c>
       <c r="O10">
-        <v>0.3331771814142301</v>
+        <v>0.3116886748125729</v>
       </c>
       <c r="P10">
-        <v>0.3331771814142301</v>
+        <v>0.3116886748125729</v>
       </c>
       <c r="Q10">
-        <v>180.6137666489893</v>
+        <v>180.6137666489894</v>
       </c>
       <c r="R10">
         <v>1625.523899840904</v>
       </c>
       <c r="S10">
-        <v>0.1018157859295378</v>
+        <v>0.09429251971517995</v>
       </c>
       <c r="T10">
-        <v>0.1018157859295378</v>
+        <v>0.09429251971517995</v>
       </c>
     </row>
   </sheetData>
